--- a/siglas/M3_AWS.xlsx
+++ b/siglas/M3_AWS.xlsx
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>10 x BACKUP 32GB RAM 16vCPU (WEBSERVER)</t>
+          <t>4 x BACKUP 32GB RAM 16vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="D4" s="25" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I4" s="6" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>12 x BACKUP 32GB RAM 16vCPU (WEBSERVER)</t>
+          <t>6 x BACKUP 32GB RAM 16vCPU (WEBSERVER)</t>
         </is>
       </c>
       <c r="D5" s="22" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I5" s="6" t="n"/>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>4 x BACKUP 16GB RAM 8vCPU (BACKUP)</t>
+          <t>2 x BACKUP 32GB RAM 16vCPU (BACKUP)</t>
         </is>
       </c>
       <c r="D6" s="22" t="inlineStr">
@@ -1872,12 +1872,12 @@
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>Windows Server</t>
+          <t>Linux</t>
         </is>
       </c>
       <c r="F6" s="24" t="inlineStr">
         <is>
-          <t>c6i.2xlarge</t>
+          <t>c6a.4xlarge</t>
         </is>
       </c>
       <c r="G6" s="5" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I6" s="6" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="M6" s="6" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N6" s="6" t="n"/>
@@ -1933,156 +1933,44 @@
         <f>IF(ISBLANK(H7),0,1)</f>
         <v/>
       </c>
-      <c r="B7" s="13" t="inlineStr">
-        <is>
-          <t>Pre-Production</t>
-        </is>
-      </c>
-      <c r="C7" s="13" t="inlineStr">
-        <is>
-          <t>4 x BACKUP 32GB RAM 16vCPU (BACKUP)</t>
-        </is>
-      </c>
-      <c r="D7" s="22" t="inlineStr">
-        <is>
-          <t>sa-east-1</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Linux</t>
-        </is>
-      </c>
-      <c r="F7" s="24" t="inlineStr">
-        <is>
-          <t>c6a.4xlarge</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Shared Instances</t>
-        </is>
-      </c>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="I7" s="6" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J7" s="14" t="inlineStr">
-        <is>
-          <t>Hours/Week</t>
-        </is>
-      </c>
-      <c r="K7" s="5" t="inlineStr">
-        <is>
-          <t>On-Demand</t>
-        </is>
-      </c>
-      <c r="L7" s="5" t="inlineStr">
-        <is>
-          <t>General Purpose SSD (gp3)</t>
-        </is>
-      </c>
-      <c r="M7" s="6" t="inlineStr">
-        <is>
-          <t>430</t>
-        </is>
-      </c>
+      <c r="B7" s="13" t="n"/>
+      <c r="C7" s="13" t="n"/>
+      <c r="D7" s="22" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="24" t="n"/>
+      <c r="G7" s="5" t="n"/>
+      <c r="H7" s="6" t="n"/>
+      <c r="I7" s="6" t="n"/>
+      <c r="J7" s="14" t="n"/>
+      <c r="K7" s="5" t="n"/>
+      <c r="L7" s="5" t="n"/>
+      <c r="M7" s="6" t="n"/>
       <c r="N7" s="6" t="n"/>
       <c r="O7" s="6" t="n"/>
-      <c r="P7" s="6" t="inlineStr">
-        <is>
-          <t>2x Daily</t>
-        </is>
-      </c>
-      <c r="Q7" s="6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="P7" s="6" t="n"/>
+      <c r="Q7" s="6" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="13">
         <f>IF(ISBLANK(H8),0,1)</f>
         <v/>
       </c>
-      <c r="B8" s="13" t="inlineStr">
-        <is>
-          <t>Development</t>
-        </is>
-      </c>
-      <c r="C8" s="13" t="inlineStr">
-        <is>
-          <t>2 x BACKUP 32GB RAM 16vCPU (BACKUP)</t>
-        </is>
-      </c>
-      <c r="D8" s="22" t="inlineStr">
-        <is>
-          <t>sa-east-1</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>Linux</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>c6a.4xlarge</t>
-        </is>
-      </c>
-      <c r="G8" s="26" t="inlineStr">
-        <is>
-          <t>Shared Instances</t>
-        </is>
-      </c>
-      <c r="H8" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="I8" s="6" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="J8" s="27" t="inlineStr">
-        <is>
-          <t>Hours/Week</t>
-        </is>
-      </c>
-      <c r="K8" s="5" t="inlineStr">
-        <is>
-          <t>On-Demand</t>
-        </is>
-      </c>
-      <c r="L8" s="5" t="inlineStr">
-        <is>
-          <t>General Purpose SSD (gp3)</t>
-        </is>
-      </c>
-      <c r="M8" s="6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B8" s="13" t="n"/>
+      <c r="C8" s="13" t="n"/>
+      <c r="D8" s="22" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="26" t="n"/>
+      <c r="H8" s="6" t="n"/>
+      <c r="I8" s="6" t="n"/>
+      <c r="J8" s="27" t="n"/>
+      <c r="K8" s="5" t="n"/>
+      <c r="L8" s="5" t="n"/>
+      <c r="M8" s="6" t="n"/>
       <c r="N8" s="6" t="n"/>
       <c r="O8" s="6" t="n"/>
-      <c r="P8" s="29" t="inlineStr">
-        <is>
-          <t>2x Daily</t>
-        </is>
-      </c>
-      <c r="Q8" s="6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+      <c r="P8" s="29" t="n"/>
+      <c r="Q8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="13">
